--- a/output_comm_wide_R1/tabS1.2.xlsx
+++ b/output_comm_wide_R1/tabS1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2a9a12216838198/coral_fish_project/output_comm_wide_R1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\topoa\OneDrive\coral_fish_project\output_comm_wide_R1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{892541EC-8BDF-4F42-94BB-31EC7A1BB779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{892541EC-8BDF-4F42-94BB-31EC7A1BB779}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8963C3A-E73F-40D1-B107-D9982B87D751}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabS1.2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="169">
   <si>
     <t>abudefduf saxatilis</t>
   </si>
@@ -499,6 +499,15 @@
     <t>thalassoma noronhanum</t>
   </si>
   <si>
+    <t>Scientific name</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Fish age class</t>
+  </si>
+  <si>
     <t>Actual body size</t>
   </si>
   <si>
@@ -518,21 +527,12 @@
   </si>
   <si>
     <t>Maximum of preferred depth</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Fish age</t>
-  </si>
-  <si>
-    <t>Scientific name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1366,49 +1366,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J168"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection sqref="A1:J168"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection sqref="A1:J172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1422,7 +1423,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>12.16</v>
+        <v>14.3</v>
       </c>
       <c r="E2">
         <v>23</v>
@@ -1454,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>7.3</v>
       </c>
       <c r="E3">
         <v>23</v>
@@ -1486,7 +1487,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>17.75</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -1509,31 +1510,31 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F5">
-        <v>1.37</v>
+        <v>0.38</v>
       </c>
       <c r="G5">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
       </c>
       <c r="I5">
-        <v>28.48</v>
+        <v>28.84</v>
       </c>
       <c r="J5">
         <v>80</v>
@@ -1541,34 +1542,34 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>21.55</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>38.1</v>
+        <v>55</v>
       </c>
       <c r="F6">
-        <v>2.4300000000000002</v>
+        <v>1.37</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>29.24</v>
+        <v>28.48</v>
       </c>
       <c r="J6">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1576,13 +1577,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>24.1</v>
       </c>
       <c r="E7">
         <v>38.1</v>
@@ -1605,22 +1606,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8">
-        <v>20.69</v>
+        <v>6.17</v>
       </c>
       <c r="E8">
-        <v>39</v>
+        <v>38.1</v>
       </c>
       <c r="F8">
-        <v>1.87</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1629,10 +1630,10 @@
         <v>11</v>
       </c>
       <c r="I8">
-        <v>29.37</v>
+        <v>29.24</v>
       </c>
       <c r="J8">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1640,13 +1641,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>21.66</v>
       </c>
       <c r="E9">
         <v>39</v>
@@ -1669,22 +1670,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10">
-        <v>19.34</v>
+        <v>7.6</v>
       </c>
       <c r="E10">
         <v>39</v>
       </c>
       <c r="F10">
-        <v>3.49</v>
+        <v>1.87</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1693,10 +1694,10 @@
         <v>11</v>
       </c>
       <c r="I10">
-        <v>29.32</v>
+        <v>29.37</v>
       </c>
       <c r="J10">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1704,13 +1705,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>23.92</v>
       </c>
       <c r="E11">
         <v>39</v>
@@ -1733,39 +1734,39 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D12">
+        <v>6.08</v>
+      </c>
+      <c r="E12">
+        <v>39</v>
+      </c>
+      <c r="F12">
+        <v>3.49</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>29.32</v>
+      </c>
+      <c r="J12">
         <v>40</v>
-      </c>
-      <c r="E12">
-        <v>76.2</v>
-      </c>
-      <c r="F12">
-        <v>1.54</v>
-      </c>
-      <c r="G12">
-        <v>3.8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12">
-        <v>28.58</v>
-      </c>
-      <c r="J12">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -1774,57 +1775,57 @@
         <v>15</v>
       </c>
       <c r="D13">
-        <v>35.270000000000003</v>
+        <v>40</v>
       </c>
       <c r="E13">
-        <v>110</v>
+        <v>76.2</v>
       </c>
       <c r="F13">
-        <v>0.86</v>
+        <v>1.54</v>
       </c>
       <c r="G13">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="H13" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I13">
-        <v>28.61</v>
+        <v>28.58</v>
       </c>
       <c r="J13">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>35.270000000000003</v>
       </c>
       <c r="E14">
-        <v>9.5</v>
+        <v>110</v>
       </c>
       <c r="F14">
-        <v>1.25</v>
+        <v>0.86</v>
       </c>
       <c r="G14">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="s">
         <v>7</v>
       </c>
       <c r="I14">
-        <v>29.29</v>
+        <v>28.61</v>
       </c>
       <c r="J14">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1832,13 +1833,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>9.5</v>
@@ -1864,7 +1865,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -1934,7 +1935,7 @@
         <v>21</v>
       </c>
       <c r="D18">
-        <v>23.35</v>
+        <v>23.71</v>
       </c>
       <c r="E18">
         <v>40.6</v>
@@ -1966,7 +1967,7 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>6.58</v>
       </c>
       <c r="E19">
         <v>40.6</v>
@@ -1992,7 +1993,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -2190,7 +2191,7 @@
         <v>32</v>
       </c>
       <c r="D26">
-        <v>23.77</v>
+        <v>24.18</v>
       </c>
       <c r="E26">
         <v>40</v>
@@ -2222,7 +2223,7 @@
         <v>32</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E27">
         <v>40</v>
@@ -2318,7 +2319,7 @@
         <v>15</v>
       </c>
       <c r="D30">
-        <v>16.329999999999998</v>
+        <v>17.02</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -2350,7 +2351,7 @@
         <v>15</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>8.58</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -2414,7 +2415,7 @@
         <v>42</v>
       </c>
       <c r="D33">
-        <v>7.6</v>
+        <v>10.28</v>
       </c>
       <c r="E33">
         <v>12</v>
@@ -2446,7 +2447,7 @@
         <v>42</v>
       </c>
       <c r="D34">
-        <v>10.68</v>
+        <v>5</v>
       </c>
       <c r="E34">
         <v>12</v>
@@ -2670,7 +2671,7 @@
         <v>52</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>12.94</v>
       </c>
       <c r="E41">
         <v>12.5</v>
@@ -2693,39 +2694,39 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D42">
-        <v>13.28</v>
+        <v>12.72</v>
       </c>
       <c r="E42">
-        <v>12.5</v>
-      </c>
-      <c r="F42" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="F42">
+        <v>2.11</v>
       </c>
       <c r="G42">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H42" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I42">
-        <v>29.97</v>
+        <v>29.08</v>
       </c>
       <c r="J42">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -2734,30 +2735,30 @@
         <v>54</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>12.66</v>
       </c>
       <c r="E43">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F43">
-        <v>2.11</v>
+        <v>2.56</v>
       </c>
       <c r="G43">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H43" t="s">
         <v>16</v>
       </c>
       <c r="I43">
-        <v>29.08</v>
+        <v>29.32</v>
       </c>
       <c r="J43">
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
@@ -2766,25 +2767,25 @@
         <v>54</v>
       </c>
       <c r="D44">
-        <v>13.36</v>
+        <v>4.72</v>
       </c>
       <c r="E44">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44">
-        <v>2.11</v>
+        <v>2.56</v>
       </c>
       <c r="G44">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H44" t="s">
         <v>16</v>
       </c>
       <c r="I44">
-        <v>29.08</v>
+        <v>29.32</v>
       </c>
       <c r="J44">
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2792,13 +2793,13 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
         <v>54</v>
       </c>
-      <c r="D45">
-        <v>7.6</v>
+      <c r="D45" t="s">
+        <v>50</v>
       </c>
       <c r="E45">
         <v>16</v>
@@ -2821,551 +2822,551 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D46">
-        <v>12.71</v>
+        <v>20</v>
       </c>
       <c r="E46">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F46">
-        <v>2.56</v>
+        <v>0.83</v>
       </c>
       <c r="G46">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H46" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I46">
-        <v>29.32</v>
+        <v>25</v>
       </c>
       <c r="J46">
-        <v>35</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
       </c>
       <c r="E47">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F47">
-        <v>2.56</v>
+        <v>0.83</v>
       </c>
       <c r="G47">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H47" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I47">
-        <v>29.32</v>
+        <v>25</v>
       </c>
       <c r="J47">
-        <v>35</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D48">
+        <v>13.59</v>
+      </c>
+      <c r="E48">
         <v>20</v>
       </c>
-      <c r="E48">
-        <v>28</v>
-      </c>
       <c r="F48">
-        <v>0.83</v>
+        <v>1.56</v>
       </c>
       <c r="G48">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="I48">
-        <v>25</v>
+        <v>28.22</v>
       </c>
       <c r="J48">
-        <v>190</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="E49">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F49">
-        <v>0.83</v>
+        <v>1.56</v>
       </c>
       <c r="G49">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="I49">
-        <v>25</v>
+        <v>28.22</v>
       </c>
       <c r="J49">
-        <v>190</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D50">
-        <v>13.23</v>
+        <v>24.38</v>
       </c>
       <c r="E50">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F50">
-        <v>1.56</v>
+        <v>2.97</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H50" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I50">
-        <v>28.22</v>
+        <v>28.18</v>
       </c>
       <c r="J50">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>7.72</v>
       </c>
       <c r="E51">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F51">
-        <v>1.56</v>
+        <v>0.67</v>
       </c>
       <c r="G51">
+        <v>2.7</v>
+      </c>
+      <c r="H51" t="s">
         <v>3</v>
       </c>
-      <c r="H51" t="s">
-        <v>40</v>
-      </c>
       <c r="I51">
-        <v>28.22</v>
+        <v>29.38</v>
       </c>
       <c r="J51">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D52">
-        <v>24.38</v>
+        <v>2.5</v>
       </c>
       <c r="E52">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F52">
-        <v>2.97</v>
+        <v>0.67</v>
       </c>
       <c r="G52">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H52" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>28.18</v>
+        <v>29.38</v>
       </c>
       <c r="J52">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D53">
-        <v>7.07</v>
+        <v>11.91</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F53">
-        <v>0.67</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G53">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H53" t="s">
         <v>3</v>
       </c>
       <c r="I53">
-        <v>29.38</v>
+        <v>29.37</v>
       </c>
       <c r="J53">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D54">
-        <v>4.38</v>
+        <v>4.88</v>
       </c>
       <c r="E54">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F54">
-        <v>0.67</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G54">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H54" t="s">
         <v>3</v>
       </c>
       <c r="I54">
-        <v>29.38</v>
+        <v>29.37</v>
       </c>
       <c r="J54">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D55">
-        <v>7.57</v>
+        <v>30</v>
       </c>
       <c r="E55">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F55">
-        <v>1.1100000000000001</v>
+        <v>1.47</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H55" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I55">
-        <v>29.37</v>
+        <v>26.66</v>
       </c>
       <c r="J55">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D56">
-        <v>10.89</v>
+        <v>35</v>
       </c>
       <c r="E56">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F56">
-        <v>1.1100000000000001</v>
+        <v>1.53</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H56" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I56">
-        <v>29.37</v>
+        <v>28.45</v>
       </c>
       <c r="J56">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D57">
-        <v>30</v>
+        <v>17.14</v>
       </c>
       <c r="E57">
-        <v>50</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="F57">
-        <v>1.47</v>
+        <v>3.57</v>
       </c>
       <c r="G57">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H57" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>26.66</v>
+        <v>24.78</v>
       </c>
       <c r="J57">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D58">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E58">
-        <v>91</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="F58">
-        <v>1.53</v>
+        <v>3.57</v>
       </c>
       <c r="G58">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H58" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>28.45</v>
+        <v>24.78</v>
       </c>
       <c r="J58">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D59">
-        <v>17.14</v>
+        <v>4</v>
       </c>
       <c r="E59">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="F59">
-        <v>3.57</v>
+        <v>3.4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>50</v>
       </c>
       <c r="G59">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H59" t="s">
         <v>3</v>
       </c>
       <c r="I59">
-        <v>24.78</v>
+        <v>28.18</v>
       </c>
       <c r="J59">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="E60">
-        <v>37.799999999999997</v>
+        <v>61</v>
       </c>
       <c r="F60">
-        <v>3.57</v>
+        <v>1.2</v>
       </c>
       <c r="G60">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H60" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I60">
-        <v>24.78</v>
+        <v>29.25</v>
       </c>
       <c r="J60">
-        <v>28</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>28.35</v>
       </c>
       <c r="E61">
-        <v>3.4</v>
-      </c>
-      <c r="F61" t="s">
-        <v>50</v>
+        <v>150</v>
+      </c>
+      <c r="F61">
+        <v>1.51</v>
       </c>
       <c r="G61">
-        <v>3.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H61" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I61">
-        <v>28.18</v>
+        <v>25.71</v>
       </c>
       <c r="J61">
-        <v>20</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C62" t="s">
         <v>49</v>
       </c>
-      <c r="D62">
-        <v>19.739999999999998</v>
+      <c r="D62" t="s">
+        <v>50</v>
       </c>
       <c r="E62">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="F62">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="G62">
-        <v>3.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H62" t="s">
         <v>7</v>
       </c>
       <c r="I62">
-        <v>29.25</v>
+        <v>25.71</v>
       </c>
       <c r="J62">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
@@ -3374,22 +3375,22 @@
         <v>49</v>
       </c>
       <c r="D63">
-        <v>28.35</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="E63">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F63">
-        <v>1.51</v>
+        <v>1.19</v>
       </c>
       <c r="G63">
-        <v>4.4000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="s">
         <v>7</v>
       </c>
       <c r="I63">
-        <v>25.71</v>
+        <v>29.39</v>
       </c>
       <c r="J63">
         <v>300</v>
@@ -3397,130 +3398,130 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>49</v>
-      </c>
-      <c r="D64" t="s">
-        <v>50</v>
+        <v>73</v>
+      </c>
+      <c r="D64">
+        <v>12</v>
       </c>
       <c r="E64">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="F64">
-        <v>1.51</v>
+        <v>2.6</v>
       </c>
       <c r="G64">
-        <v>4.4000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="H64" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>25.71</v>
+        <v>29.77</v>
       </c>
       <c r="J64">
-        <v>300</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D65">
-        <v>32.729999999999997</v>
+        <v>6.41</v>
       </c>
       <c r="E65">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="F65">
-        <v>1.19</v>
+        <v>2.6</v>
       </c>
       <c r="G65">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H65" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>29.39</v>
+        <v>29.77</v>
       </c>
       <c r="J65">
-        <v>300</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D66">
-        <v>6.72</v>
+        <v>81</v>
       </c>
       <c r="E66">
-        <v>30</v>
-      </c>
-      <c r="F66">
-        <v>2.6</v>
+        <v>200</v>
+      </c>
+      <c r="F66" t="s">
+        <v>50</v>
       </c>
       <c r="G66">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H66" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I66">
-        <v>29.77</v>
+        <v>28.69</v>
       </c>
       <c r="J66">
-        <v>25</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D67">
-        <v>81</v>
+        <v>19.55</v>
       </c>
       <c r="E67">
-        <v>200</v>
-      </c>
-      <c r="F67" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="F67">
+        <v>2.1</v>
       </c>
       <c r="G67">
-        <v>3.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H67" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="I67">
-        <v>28.69</v>
+        <v>29.39</v>
       </c>
       <c r="J67">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3528,13 +3529,13 @@
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
         <v>21</v>
       </c>
       <c r="D68">
-        <v>19.21</v>
+        <v>6.08</v>
       </c>
       <c r="E68">
         <v>25</v>
@@ -3557,31 +3558,31 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C69" t="s">
         <v>21</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>21.24</v>
       </c>
       <c r="E69">
-        <v>25</v>
+        <v>41.2</v>
       </c>
       <c r="F69">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="G69">
-        <v>4.4000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="H69" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I69">
-        <v>29.39</v>
+        <v>29.5</v>
       </c>
       <c r="J69">
         <v>40</v>
@@ -3589,7 +3590,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -3598,22 +3599,22 @@
         <v>21</v>
       </c>
       <c r="D70">
-        <v>21.24</v>
+        <v>23.12</v>
       </c>
       <c r="E70">
-        <v>41.2</v>
+        <v>53</v>
       </c>
       <c r="F70">
-        <v>2.27</v>
+        <v>3</v>
       </c>
       <c r="G70">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H70" t="s">
         <v>11</v>
       </c>
       <c r="I70">
-        <v>29.5</v>
+        <v>29.39</v>
       </c>
       <c r="J70">
         <v>40</v>
@@ -3624,13 +3625,13 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
         <v>21</v>
       </c>
       <c r="D71">
-        <v>22.58</v>
+        <v>7.14</v>
       </c>
       <c r="E71">
         <v>53</v>
@@ -3653,31 +3654,31 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C72" t="s">
         <v>21</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>15.59</v>
       </c>
       <c r="E72">
-        <v>53</v>
+        <v>11.5</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>3.41</v>
       </c>
       <c r="G72">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H72" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I72">
-        <v>29.39</v>
+        <v>28.45</v>
       </c>
       <c r="J72">
         <v>40</v>
@@ -3685,66 +3686,66 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C73" t="s">
         <v>21</v>
       </c>
       <c r="D73">
-        <v>15.59</v>
+        <v>21.53</v>
       </c>
       <c r="E73">
-        <v>11.5</v>
+        <v>30</v>
       </c>
       <c r="F73">
-        <v>3.41</v>
+        <v>1.95</v>
       </c>
       <c r="G73">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H73" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I73">
-        <v>28.45</v>
+        <v>28.12</v>
       </c>
       <c r="J73">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D74">
-        <v>21.53</v>
+        <v>20.69</v>
       </c>
       <c r="E74">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F74">
-        <v>1.95</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G74">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H74" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I74">
-        <v>28.12</v>
+        <v>29.49</v>
       </c>
       <c r="J74">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3752,13 +3753,13 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
         <v>32</v>
       </c>
       <c r="D75">
-        <v>20.69</v>
+        <v>10</v>
       </c>
       <c r="E75">
         <v>35</v>
@@ -3781,34 +3782,34 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C76" t="s">
         <v>32</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>25.55</v>
       </c>
       <c r="E76">
+        <v>39.5</v>
+      </c>
+      <c r="F76">
+        <v>0.77</v>
+      </c>
+      <c r="G76">
+        <v>3.7</v>
+      </c>
+      <c r="H76" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76">
+        <v>28.13</v>
+      </c>
+      <c r="J76">
         <v>35</v>
-      </c>
-      <c r="F76">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G76">
-        <v>3.8</v>
-      </c>
-      <c r="H76" t="s">
-        <v>7</v>
-      </c>
-      <c r="I76">
-        <v>29.49</v>
-      </c>
-      <c r="J76">
-        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3816,13 +3817,13 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
         <v>32</v>
       </c>
       <c r="D77">
-        <v>25.44</v>
+        <v>9.58</v>
       </c>
       <c r="E77">
         <v>39.5</v>
@@ -3845,34 +3846,34 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C78" t="s">
         <v>32</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>21.42</v>
       </c>
       <c r="E78">
-        <v>39.5</v>
+        <v>27</v>
       </c>
       <c r="F78">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
       <c r="G78">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H78" t="s">
         <v>7</v>
       </c>
       <c r="I78">
-        <v>28.13</v>
+        <v>28.23</v>
       </c>
       <c r="J78">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3880,13 +3881,13 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
         <v>32</v>
       </c>
       <c r="D79">
-        <v>20.23</v>
+        <v>6</v>
       </c>
       <c r="E79">
         <v>27</v>
@@ -3918,7 +3919,7 @@
         <v>32</v>
       </c>
       <c r="D80">
-        <v>8.67</v>
+        <v>11.85</v>
       </c>
       <c r="E80">
         <v>11.9</v>
@@ -3941,34 +3942,34 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C81" t="s">
         <v>32</v>
       </c>
       <c r="D81">
-        <v>12.26</v>
+        <v>18.23</v>
       </c>
       <c r="E81">
-        <v>11.9</v>
-      </c>
-      <c r="F81" t="s">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="F81">
+        <v>1.48</v>
       </c>
       <c r="G81">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H81" t="s">
         <v>7</v>
       </c>
       <c r="I81">
-        <v>28.13</v>
+        <v>29.4</v>
       </c>
       <c r="J81">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3976,13 +3977,13 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
         <v>32</v>
       </c>
       <c r="D82">
-        <v>16.45</v>
+        <v>8.68</v>
       </c>
       <c r="E82">
         <v>20</v>
@@ -4005,34 +4006,34 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C83" t="s">
         <v>32</v>
       </c>
       <c r="D83">
-        <v>10</v>
+        <v>22.25</v>
       </c>
       <c r="E83">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F83">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G83">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H83" t="s">
         <v>7</v>
       </c>
       <c r="I83">
-        <v>29.4</v>
+        <v>29.71</v>
       </c>
       <c r="J83">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4040,13 +4041,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
         <v>32</v>
       </c>
       <c r="D84">
-        <v>20.54</v>
+        <v>8.75</v>
       </c>
       <c r="E84">
         <v>51</v>
@@ -4069,71 +4070,71 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="D85">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E85">
-        <v>51</v>
+        <v>50.7</v>
       </c>
       <c r="F85">
-        <v>1.5</v>
+        <v>1.84</v>
       </c>
       <c r="G85">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H85" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>29.71</v>
+        <v>28.45</v>
       </c>
       <c r="J85">
-        <v>55</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86" t="s">
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D86">
-        <v>30</v>
+        <v>26.68</v>
       </c>
       <c r="E86">
-        <v>50.7</v>
+        <v>45</v>
       </c>
       <c r="F86">
-        <v>1.84</v>
+        <v>0.8</v>
       </c>
       <c r="G86">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I86">
-        <v>28.45</v>
+        <v>29.43</v>
       </c>
       <c r="J86">
-        <v>300</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
@@ -4142,13 +4143,13 @@
         <v>90</v>
       </c>
       <c r="D87">
-        <v>26.68</v>
+        <v>14.78</v>
       </c>
       <c r="E87">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F87">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -4157,10 +4158,10 @@
         <v>7</v>
       </c>
       <c r="I87">
-        <v>29.43</v>
+        <v>29.32</v>
       </c>
       <c r="J87">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4168,13 +4169,13 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
         <v>90</v>
       </c>
       <c r="D88">
-        <v>14.46</v>
+        <v>6</v>
       </c>
       <c r="E88">
         <v>35</v>
@@ -4366,7 +4367,7 @@
         <v>98</v>
       </c>
       <c r="D94">
-        <v>15</v>
+        <v>16.75</v>
       </c>
       <c r="E94">
         <v>23</v>
@@ -4398,7 +4399,7 @@
         <v>98</v>
       </c>
       <c r="D95">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95">
         <v>23</v>
@@ -4616,7 +4617,7 @@
         <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
         <v>98</v>
@@ -4686,7 +4687,7 @@
         <v>2</v>
       </c>
       <c r="D104">
-        <v>15.11</v>
+        <v>15.33</v>
       </c>
       <c r="E104">
         <v>21</v>
@@ -4712,13 +4713,13 @@
         <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
       </c>
-      <c r="D105" t="s">
-        <v>50</v>
+      <c r="D105">
+        <v>6</v>
       </c>
       <c r="E105">
         <v>21</v>
@@ -4741,103 +4742,103 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C106" t="s">
-        <v>111</v>
-      </c>
-      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>50</v>
+      </c>
+      <c r="E106">
+        <v>21</v>
+      </c>
+      <c r="F106">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G106">
+        <v>2.1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>7</v>
+      </c>
+      <c r="I106">
+        <v>29.4</v>
+      </c>
+      <c r="J106">
         <v>40</v>
-      </c>
-      <c r="E106">
-        <v>91</v>
-      </c>
-      <c r="F106">
-        <v>1.91</v>
-      </c>
-      <c r="G106">
-        <v>2</v>
-      </c>
-      <c r="H106" t="s">
-        <v>40</v>
-      </c>
-      <c r="I106">
-        <v>27.39</v>
-      </c>
-      <c r="J106">
-        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B107" t="s">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D107">
-        <v>22.6</v>
+        <v>40</v>
       </c>
       <c r="E107">
-        <v>44.8</v>
+        <v>91</v>
       </c>
       <c r="F107">
-        <v>2.2599999999999998</v>
+        <v>1.91</v>
       </c>
       <c r="G107">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H107" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I107">
-        <v>28.77</v>
+        <v>27.39</v>
       </c>
       <c r="J107">
-        <v>49</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B108" t="s">
         <v>1</v>
       </c>
       <c r="C108" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108">
+        <v>22.6</v>
+      </c>
+      <c r="E108">
+        <v>44.8</v>
+      </c>
+      <c r="F108">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G108">
+        <v>3.2</v>
+      </c>
+      <c r="H108" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108">
+        <v>28.77</v>
+      </c>
+      <c r="J108">
         <v>49</v>
-      </c>
-      <c r="D108">
-        <v>33.409999999999997</v>
-      </c>
-      <c r="E108">
-        <v>80</v>
-      </c>
-      <c r="F108">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="G108">
-        <v>3.4</v>
-      </c>
-      <c r="H108" t="s">
-        <v>7</v>
-      </c>
-      <c r="I108">
-        <v>29.45</v>
-      </c>
-      <c r="J108">
-        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109" t="s">
         <v>1</v>
@@ -4846,30 +4847,30 @@
         <v>49</v>
       </c>
       <c r="D109">
-        <v>35.19</v>
+        <v>33.409999999999997</v>
       </c>
       <c r="E109">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="F109">
-        <v>1.52</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G109">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="H109" t="s">
         <v>7</v>
       </c>
       <c r="I109">
-        <v>29.37</v>
+        <v>29.45</v>
       </c>
       <c r="J109">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110" t="s">
         <v>1</v>
@@ -4878,80 +4879,80 @@
         <v>49</v>
       </c>
       <c r="D110">
-        <v>28.25</v>
+        <v>36.44</v>
       </c>
       <c r="E110">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="F110">
-        <v>1.28</v>
+        <v>1.52</v>
       </c>
       <c r="G110">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H110" t="s">
         <v>7</v>
       </c>
       <c r="I110">
-        <v>29.38</v>
+        <v>29.37</v>
       </c>
       <c r="J110">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="D111">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E111">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="F111">
-        <v>0.16</v>
+        <v>1.52</v>
       </c>
       <c r="G111">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="H111" t="s">
         <v>7</v>
       </c>
       <c r="I111">
-        <v>29.38</v>
+        <v>29.37</v>
       </c>
       <c r="J111">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B112" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>118</v>
-      </c>
-      <c r="D112" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="D112">
+        <v>28.25</v>
       </c>
       <c r="E112">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="F112">
-        <v>0.16</v>
+        <v>1.28</v>
       </c>
       <c r="G112">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="H112" t="s">
         <v>7</v>
@@ -4960,204 +4961,204 @@
         <v>29.38</v>
       </c>
       <c r="J112">
-        <v>7</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B113" t="s">
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D113">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E113">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="F113">
-        <v>2.77</v>
+        <v>0.16</v>
       </c>
       <c r="G113">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H113" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I113">
-        <v>28.75</v>
+        <v>29.38</v>
       </c>
       <c r="J113">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C114" t="s">
-        <v>101</v>
-      </c>
-      <c r="D114">
-        <v>23.32</v>
+        <v>118</v>
+      </c>
+      <c r="D114" t="s">
+        <v>50</v>
       </c>
       <c r="E114">
-        <v>86.3</v>
+        <v>110</v>
       </c>
       <c r="F114">
-        <v>1.74</v>
+        <v>0.16</v>
       </c>
       <c r="G114">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H114" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I114">
-        <v>29.3</v>
+        <v>29.38</v>
       </c>
       <c r="J114">
-        <v>180</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D115">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E115">
-        <v>86.3</v>
+        <v>25</v>
       </c>
       <c r="F115">
-        <v>1.74</v>
+        <v>2.77</v>
       </c>
       <c r="G115">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H115" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I115">
-        <v>29.3</v>
+        <v>28.75</v>
       </c>
       <c r="J115">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B116" t="s">
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D116">
-        <v>22.29</v>
+        <v>23.54</v>
       </c>
       <c r="E116">
-        <v>30</v>
+        <v>86.3</v>
       </c>
       <c r="F116">
-        <v>1.26</v>
+        <v>1.74</v>
       </c>
       <c r="G116">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H116" t="s">
         <v>3</v>
       </c>
       <c r="I116">
-        <v>29.52</v>
+        <v>29.3</v>
       </c>
       <c r="J116">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D117">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="E117">
-        <v>12.2</v>
-      </c>
-      <c r="F117" t="s">
-        <v>50</v>
+        <v>86.3</v>
+      </c>
+      <c r="F117">
+        <v>1.74</v>
       </c>
       <c r="G117">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H117" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>29.73</v>
+        <v>29.3</v>
       </c>
       <c r="J117">
-        <v>8</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B118" t="s">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="D118">
-        <v>22.5</v>
+        <v>22.29</v>
       </c>
       <c r="E118">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F118">
-        <v>2.1</v>
+        <v>1.26</v>
       </c>
       <c r="G118">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H118" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>29.2</v>
+        <v>29.52</v>
       </c>
       <c r="J118">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B119" t="s">
         <v>1</v>
@@ -5166,717 +5167,717 @@
         <v>124</v>
       </c>
       <c r="D119">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E119">
-        <v>12.7</v>
-      </c>
-      <c r="F119">
-        <v>1.4</v>
+        <v>12.2</v>
+      </c>
+      <c r="F119" t="s">
+        <v>50</v>
       </c>
       <c r="G119">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H119" t="s">
         <v>7</v>
       </c>
       <c r="I119">
-        <v>24.49</v>
+        <v>29.73</v>
       </c>
       <c r="J119">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B120" t="s">
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="D120">
-        <v>8.33</v>
+        <v>22.5</v>
       </c>
       <c r="E120">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F120">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="G120">
         <v>3.6</v>
       </c>
       <c r="H120" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I120">
-        <v>29.45</v>
+        <v>29.2</v>
       </c>
       <c r="J120">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B121" t="s">
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="D121">
-        <v>32.270000000000003</v>
+        <v>7</v>
       </c>
       <c r="E121">
-        <v>60</v>
+        <v>12.7</v>
       </c>
       <c r="F121">
-        <v>2.06</v>
+        <v>1.4</v>
       </c>
       <c r="G121">
         <v>3.2</v>
       </c>
       <c r="H121" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I121">
-        <v>29.38</v>
+        <v>24.49</v>
       </c>
       <c r="J121">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B122" t="s">
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D122">
-        <v>29.14</v>
+        <v>20</v>
       </c>
       <c r="E122">
-        <v>41.1</v>
+        <v>23</v>
       </c>
       <c r="F122">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="G122">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H122" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I122">
-        <v>29.38</v>
+        <v>29.45</v>
       </c>
       <c r="J122">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D123">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="E123">
-        <v>41.1</v>
+        <v>23</v>
       </c>
       <c r="F123">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="G123">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H123" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>29.38</v>
+        <v>29.45</v>
       </c>
       <c r="J123">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B124" t="s">
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D124">
-        <v>18.5</v>
+        <v>32.270000000000003</v>
       </c>
       <c r="E124">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F124">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G124">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H124" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I124">
-        <v>27.61</v>
+        <v>29.38</v>
       </c>
       <c r="J124">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B125" t="s">
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D125">
-        <v>21.75</v>
+        <v>29.86</v>
       </c>
       <c r="E125">
-        <v>80</v>
+        <v>41.1</v>
       </c>
       <c r="F125">
-        <v>4.38</v>
+        <v>1.83</v>
       </c>
       <c r="G125">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="H125" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I125">
-        <v>26.99</v>
+        <v>29.38</v>
       </c>
       <c r="J125">
-        <v>238</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D126">
-        <v>18.14</v>
+        <v>7.08</v>
       </c>
       <c r="E126">
-        <v>30</v>
+        <v>41.1</v>
       </c>
       <c r="F126">
-        <v>2.21</v>
+        <v>1.83</v>
       </c>
       <c r="G126">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H126" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I126">
-        <v>29.32</v>
+        <v>29.38</v>
       </c>
       <c r="J126">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>88</v>
+      </c>
+      <c r="D127">
+        <v>18.5</v>
+      </c>
+      <c r="E127">
+        <v>50</v>
+      </c>
+      <c r="F127">
+        <v>2.04</v>
+      </c>
+      <c r="G127">
         <v>4</v>
       </c>
-      <c r="C127" t="s">
-        <v>113</v>
-      </c>
-      <c r="D127">
-        <v>10</v>
-      </c>
-      <c r="E127">
-        <v>30</v>
-      </c>
-      <c r="F127">
-        <v>2.21</v>
-      </c>
-      <c r="G127">
-        <v>3.7</v>
-      </c>
       <c r="H127" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I127">
-        <v>29.32</v>
+        <v>27.61</v>
       </c>
       <c r="J127">
-        <v>90</v>
+        <v>200</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>113</v>
-      </c>
-      <c r="D128" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="D128">
+        <v>21.75</v>
       </c>
       <c r="E128">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F128">
-        <v>2.21</v>
+        <v>4.38</v>
       </c>
       <c r="G128">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H128" t="s">
         <v>3</v>
       </c>
       <c r="I128">
-        <v>29.32</v>
+        <v>26.99</v>
       </c>
       <c r="J128">
-        <v>90</v>
+        <v>238</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B129" t="s">
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D129">
-        <v>18.64</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="E129">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F129">
-        <v>2.77</v>
+        <v>2.21</v>
       </c>
       <c r="G129">
-        <v>4.4000000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="H129" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>29.18</v>
+        <v>29.32</v>
       </c>
       <c r="J129">
-        <v>300</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="D130">
-        <v>21.67</v>
+        <v>9.43</v>
       </c>
       <c r="E130">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F130">
-        <v>1.23</v>
+        <v>2.21</v>
       </c>
       <c r="G130">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="H130" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>28.55</v>
+        <v>29.32</v>
       </c>
       <c r="J130">
-        <v>140</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C131" t="s">
-        <v>63</v>
-      </c>
-      <c r="D131">
-        <v>39.85</v>
+        <v>113</v>
+      </c>
+      <c r="D131" t="s">
+        <v>50</v>
       </c>
       <c r="E131">
-        <v>55.6</v>
-      </c>
-      <c r="F131" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="F131">
+        <v>2.21</v>
       </c>
       <c r="G131">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H131" t="s">
         <v>3</v>
       </c>
       <c r="I131">
-        <v>28.18</v>
+        <v>29.32</v>
       </c>
       <c r="J131">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B132" t="s">
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="D132">
-        <v>28.71</v>
+        <v>18.64</v>
       </c>
       <c r="E132">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="F132" t="s">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="F132">
+        <v>2.77</v>
       </c>
       <c r="G132">
-        <v>2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H132" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I132">
-        <v>28.18</v>
+        <v>29.18</v>
       </c>
       <c r="J132">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D133">
-        <v>10</v>
+        <v>21.67</v>
       </c>
       <c r="E133">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="F133" t="s">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="F133">
+        <v>1.23</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H133" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I133">
-        <v>28.18</v>
+        <v>28.55</v>
       </c>
       <c r="J133">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B134" t="s">
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="D134">
-        <v>110</v>
+        <v>39.85</v>
       </c>
       <c r="E134">
-        <v>183</v>
-      </c>
-      <c r="F134">
-        <v>4.5199999999999996</v>
+        <v>55.6</v>
+      </c>
+      <c r="F134" t="s">
+        <v>50</v>
       </c>
       <c r="G134">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H134" t="s">
         <v>3</v>
       </c>
       <c r="I134">
-        <v>29.83</v>
+        <v>28.18</v>
       </c>
       <c r="J134">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B135" t="s">
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D135">
-        <v>47</v>
+        <v>31.49</v>
       </c>
       <c r="E135">
-        <v>160</v>
-      </c>
-      <c r="F135">
-        <v>3.74</v>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F135" t="s">
+        <v>50</v>
       </c>
       <c r="G135">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H135" t="s">
         <v>3</v>
       </c>
       <c r="I135">
-        <v>28.21</v>
+        <v>28.18</v>
       </c>
       <c r="J135">
-        <v>245</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D136">
-        <v>6.92</v>
+        <v>7.37</v>
       </c>
       <c r="E136">
-        <v>12</v>
-      </c>
-      <c r="F136">
-        <v>1.08</v>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F136" t="s">
+        <v>50</v>
       </c>
       <c r="G136">
-        <v>4.0999999999999996</v>
+        <v>2</v>
       </c>
       <c r="H136" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>28.91</v>
+        <v>28.18</v>
       </c>
       <c r="J136">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="D137">
-        <v>8.25</v>
+        <v>110</v>
       </c>
       <c r="E137">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="F137">
-        <v>1.08</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="G137">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="H137" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>28.91</v>
+        <v>29.83</v>
       </c>
       <c r="J137">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B138" t="s">
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D138">
-        <v>25.84</v>
+        <v>47</v>
       </c>
       <c r="E138">
-        <v>39</v>
-      </c>
-      <c r="F138" t="s">
-        <v>50</v>
+        <v>160</v>
+      </c>
+      <c r="F138">
+        <v>3.74</v>
       </c>
       <c r="G138">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H138" t="s">
         <v>3</v>
       </c>
       <c r="I138">
-        <v>28.18</v>
+        <v>28.21</v>
       </c>
       <c r="J138">
-        <v>30</v>
+        <v>245</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D139">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E139">
-        <v>39</v>
-      </c>
-      <c r="F139" t="s">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="F139">
+        <v>1.08</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H139" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I139">
-        <v>28.18</v>
+        <v>28.91</v>
       </c>
       <c r="J139">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D140">
-        <v>24.3</v>
+        <v>4.76</v>
       </c>
       <c r="E140">
-        <v>43.7</v>
+        <v>12</v>
       </c>
       <c r="F140">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H140" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I140">
-        <v>28.58</v>
+        <v>28.91</v>
       </c>
       <c r="J140">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C141" t="s">
         <v>63</v>
       </c>
       <c r="D141">
-        <v>10</v>
+        <v>25.84</v>
       </c>
       <c r="E141">
-        <v>43.7</v>
-      </c>
-      <c r="F141">
-        <v>1.2</v>
+        <v>39</v>
+      </c>
+      <c r="F141" t="s">
+        <v>50</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -5885,30 +5886,30 @@
         <v>3</v>
       </c>
       <c r="I141">
-        <v>28.58</v>
+        <v>28.18</v>
       </c>
       <c r="J141">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C142" t="s">
         <v>63</v>
       </c>
       <c r="D142">
-        <v>21.26</v>
+        <v>10</v>
       </c>
       <c r="E142">
-        <v>34.5</v>
-      </c>
-      <c r="F142">
-        <v>1.35</v>
+        <v>39</v>
+      </c>
+      <c r="F142" t="s">
+        <v>50</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -5917,30 +5918,30 @@
         <v>3</v>
       </c>
       <c r="I142">
-        <v>28.11</v>
+        <v>28.18</v>
       </c>
       <c r="J142">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C143" t="s">
         <v>63</v>
       </c>
       <c r="D143">
-        <v>10</v>
+        <v>24.88</v>
       </c>
       <c r="E143">
-        <v>34.5</v>
+        <v>43.7</v>
       </c>
       <c r="F143">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -5949,7 +5950,7 @@
         <v>3</v>
       </c>
       <c r="I143">
-        <v>28.11</v>
+        <v>28.58</v>
       </c>
       <c r="J143">
         <v>54</v>
@@ -5957,22 +5958,22 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C144" t="s">
         <v>63</v>
       </c>
-      <c r="D144" t="s">
-        <v>50</v>
+      <c r="D144">
+        <v>8.7200000000000006</v>
       </c>
       <c r="E144">
-        <v>34.5</v>
+        <v>43.7</v>
       </c>
       <c r="F144">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -5981,7 +5982,7 @@
         <v>3</v>
       </c>
       <c r="I144">
-        <v>28.11</v>
+        <v>28.58</v>
       </c>
       <c r="J144">
         <v>54</v>
@@ -5989,7 +5990,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
         <v>1</v>
@@ -5998,13 +5999,13 @@
         <v>63</v>
       </c>
       <c r="D145">
-        <v>9.9600000000000009</v>
+        <v>22.31</v>
       </c>
       <c r="E145">
-        <v>20</v>
+        <v>34.5</v>
       </c>
       <c r="F145">
-        <v>1.1200000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -6013,15 +6014,15 @@
         <v>3</v>
       </c>
       <c r="I145">
-        <v>29.45</v>
+        <v>28.11</v>
       </c>
       <c r="J145">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146" t="s">
         <v>4</v>
@@ -6030,13 +6031,13 @@
         <v>63</v>
       </c>
       <c r="D146">
-        <v>10</v>
+        <v>8.42</v>
       </c>
       <c r="E146">
-        <v>20</v>
+        <v>34.5</v>
       </c>
       <c r="F146">
-        <v>1.1200000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -6045,30 +6046,30 @@
         <v>3</v>
       </c>
       <c r="I146">
-        <v>29.45</v>
+        <v>28.11</v>
       </c>
       <c r="J146">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C147" t="s">
         <v>63</v>
       </c>
-      <c r="D147">
-        <v>7.96</v>
+      <c r="D147" t="s">
+        <v>50</v>
       </c>
       <c r="E147">
-        <v>15.4</v>
+        <v>34.5</v>
       </c>
       <c r="F147">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -6077,30 +6078,30 @@
         <v>3</v>
       </c>
       <c r="I147">
-        <v>27.84</v>
+        <v>28.11</v>
       </c>
       <c r="J147">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B148" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C148" t="s">
         <v>63</v>
       </c>
       <c r="D148">
-        <v>16.37</v>
+        <v>13.16</v>
       </c>
       <c r="E148">
-        <v>15.4</v>
+        <v>20</v>
       </c>
       <c r="F148">
-        <v>1.18</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -6109,649 +6110,777 @@
         <v>3</v>
       </c>
       <c r="I148">
-        <v>27.84</v>
+        <v>29.45</v>
       </c>
       <c r="J148">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B149" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D149">
-        <v>13.86</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="E149">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F149">
-        <v>1.75</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G149">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H149" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>29.86</v>
-      </c>
-      <c r="J149" t="s">
-        <v>50</v>
+        <v>29.45</v>
+      </c>
+      <c r="J149">
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B150" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D150">
-        <v>10</v>
+        <v>16.18</v>
       </c>
       <c r="E150">
-        <v>18</v>
+        <v>15.4</v>
       </c>
       <c r="F150">
-        <v>1.75</v>
+        <v>1.18</v>
       </c>
       <c r="G150">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H150" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>29.86</v>
-      </c>
-      <c r="J150" t="s">
-        <v>50</v>
+        <v>27.84</v>
+      </c>
+      <c r="J150">
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B151" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D151">
-        <v>12.7</v>
+        <v>4.58</v>
       </c>
       <c r="E151">
-        <v>30</v>
+        <v>15.4</v>
       </c>
       <c r="F151">
-        <v>1.97</v>
+        <v>1.18</v>
       </c>
       <c r="G151">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H151" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I151">
-        <v>28.84</v>
+        <v>27.84</v>
       </c>
       <c r="J151">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B152" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C152" t="s">
         <v>42</v>
       </c>
       <c r="D152">
-        <v>10</v>
+        <v>13.86</v>
       </c>
       <c r="E152">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F152">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="G152">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H152" t="s">
         <v>7</v>
       </c>
       <c r="I152">
-        <v>28.84</v>
-      </c>
-      <c r="J152">
-        <v>45</v>
+        <v>29.86</v>
+      </c>
+      <c r="J152" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B153" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C153" t="s">
         <v>42</v>
       </c>
       <c r="D153">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E153">
-        <v>38.799999999999997</v>
+        <v>18</v>
       </c>
       <c r="F153">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="G153">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H153" t="s">
         <v>7</v>
       </c>
       <c r="I153">
-        <v>29.52</v>
-      </c>
-      <c r="J153">
-        <v>10</v>
+        <v>29.86</v>
+      </c>
+      <c r="J153" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B154" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C154" t="s">
         <v>42</v>
       </c>
       <c r="D154">
-        <v>10</v>
+        <v>13.95</v>
       </c>
       <c r="E154">
-        <v>38.799999999999997</v>
+        <v>30</v>
       </c>
       <c r="F154">
-        <v>1.42</v>
+        <v>1.97</v>
       </c>
       <c r="G154">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H154" t="s">
         <v>7</v>
       </c>
       <c r="I154">
-        <v>29.52</v>
+        <v>28.84</v>
       </c>
       <c r="J154">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B155" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="D155">
-        <v>89.73</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="E155">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="F155">
-        <v>2.4500000000000002</v>
+        <v>1.97</v>
       </c>
       <c r="G155">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="H155" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I155">
-        <v>29.39</v>
+        <v>28.84</v>
       </c>
       <c r="J155">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B156" t="s">
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D156">
-        <v>7.89</v>
+        <v>15</v>
       </c>
       <c r="E156">
-        <v>12.6</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="F156">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="G156">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H156" t="s">
         <v>7</v>
       </c>
       <c r="I156">
-        <v>28.21</v>
+        <v>29.52</v>
       </c>
       <c r="J156">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B157" t="s">
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D157">
-        <v>11.29</v>
+        <v>10</v>
       </c>
       <c r="E157">
-        <v>12.6</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="F157">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="G157">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H157" t="s">
         <v>7</v>
       </c>
       <c r="I157">
-        <v>28.21</v>
+        <v>29.52</v>
       </c>
       <c r="J157">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B158" t="s">
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D158">
-        <v>7.63</v>
+        <v>95.71</v>
       </c>
       <c r="E158">
-        <v>8.5</v>
+        <v>200</v>
       </c>
       <c r="F158">
-        <v>0.89</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G158">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H158" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>28.8</v>
+        <v>29.39</v>
       </c>
       <c r="J158">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B159" t="s">
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D159">
-        <v>9.77</v>
+        <v>6</v>
       </c>
       <c r="E159">
-        <v>8.5</v>
+        <v>200</v>
       </c>
       <c r="F159">
-        <v>0.89</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G159">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H159" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I159">
-        <v>28.8</v>
+        <v>29.39</v>
       </c>
       <c r="J159">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B160" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
       </c>
-      <c r="D160" t="s">
-        <v>50</v>
+      <c r="D160">
+        <v>11.11</v>
       </c>
       <c r="E160">
-        <v>8.5</v>
+        <v>12.6</v>
       </c>
       <c r="F160">
-        <v>0.89</v>
+        <v>1.48</v>
       </c>
       <c r="G160">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H160" t="s">
         <v>7</v>
       </c>
       <c r="I160">
-        <v>28.8</v>
+        <v>28.21</v>
       </c>
       <c r="J160">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B161" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
       </c>
       <c r="D161">
-        <v>7.38</v>
+        <v>4.5</v>
       </c>
       <c r="E161">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F161">
-        <v>1.98</v>
+        <v>1.48</v>
       </c>
       <c r="G161">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H161" t="s">
         <v>7</v>
       </c>
       <c r="I161">
-        <v>28.86</v>
+        <v>28.21</v>
       </c>
       <c r="J161">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B162" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C162" t="s">
         <v>2</v>
       </c>
       <c r="D162">
-        <v>9.19</v>
+        <v>9.48</v>
       </c>
       <c r="E162">
-        <v>12.5</v>
+        <v>8.5</v>
       </c>
       <c r="F162">
-        <v>1.98</v>
+        <v>0.89</v>
       </c>
       <c r="G162">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H162" t="s">
         <v>7</v>
       </c>
       <c r="I162">
-        <v>28.86</v>
+        <v>28.8</v>
       </c>
       <c r="J162">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B163" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>16.239999999999998</v>
+        <v>4.97</v>
       </c>
       <c r="E163">
-        <v>27.5</v>
+        <v>8.5</v>
       </c>
       <c r="F163">
-        <v>1.27</v>
+        <v>0.89</v>
       </c>
       <c r="G163">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H163" t="s">
         <v>7</v>
       </c>
       <c r="I163">
-        <v>28.36</v>
+        <v>28.8</v>
       </c>
       <c r="J163">
-        <v>293</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B164" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C164" t="s">
-        <v>15</v>
-      </c>
-      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>50</v>
+      </c>
+      <c r="E164">
+        <v>8.5</v>
+      </c>
+      <c r="F164">
+        <v>0.89</v>
+      </c>
+      <c r="G164">
+        <v>2.7</v>
+      </c>
+      <c r="H164" t="s">
+        <v>7</v>
+      </c>
+      <c r="I164">
+        <v>28.8</v>
+      </c>
+      <c r="J164">
         <v>10</v>
-      </c>
-      <c r="E164">
-        <v>27.5</v>
-      </c>
-      <c r="F164">
-        <v>1.27</v>
-      </c>
-      <c r="G164">
-        <v>2.6</v>
-      </c>
-      <c r="H164" t="s">
-        <v>7</v>
-      </c>
-      <c r="I164">
-        <v>28.36</v>
-      </c>
-      <c r="J164">
-        <v>293</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B165" t="s">
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>16.25</v>
+        <v>11.37</v>
       </c>
       <c r="E165">
-        <v>46</v>
+        <v>12.5</v>
       </c>
       <c r="F165">
-        <v>1.56</v>
+        <v>1.98</v>
       </c>
       <c r="G165">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H165" t="s">
         <v>7</v>
       </c>
       <c r="I165">
-        <v>29.39</v>
+        <v>28.86</v>
       </c>
       <c r="J165">
-        <v>186</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B166" t="s">
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>10</v>
+        <v>4.32</v>
       </c>
       <c r="E166">
-        <v>43</v>
+        <v>12.5</v>
       </c>
       <c r="F166">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="G166">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H166" t="s">
         <v>7</v>
       </c>
       <c r="I166">
-        <v>28.41</v>
+        <v>28.86</v>
       </c>
       <c r="J166">
-        <v>295</v>
+        <v>30</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B167" t="s">
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D167">
-        <v>6.89</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="E167">
-        <v>13.3</v>
-      </c>
-      <c r="F167" t="s">
-        <v>50</v>
+        <v>27.5</v>
+      </c>
+      <c r="F167">
+        <v>1.27</v>
       </c>
       <c r="G167">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H167" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I167">
-        <v>28.18</v>
+        <v>28.36</v>
       </c>
       <c r="J167">
-        <v>60</v>
+        <v>293</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B168" t="s">
         <v>4</v>
       </c>
       <c r="C168" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="E168">
+        <v>27.5</v>
+      </c>
+      <c r="F168">
+        <v>1.27</v>
+      </c>
+      <c r="G168">
+        <v>2.6</v>
+      </c>
+      <c r="H168" t="s">
+        <v>7</v>
+      </c>
+      <c r="I168">
+        <v>28.36</v>
+      </c>
+      <c r="J168">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>155</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>156</v>
+      </c>
+      <c r="D169">
+        <v>16.25</v>
+      </c>
+      <c r="E169">
+        <v>46</v>
+      </c>
+      <c r="F169">
+        <v>1.56</v>
+      </c>
+      <c r="G169">
+        <v>4.2</v>
+      </c>
+      <c r="H169" t="s">
+        <v>7</v>
+      </c>
+      <c r="I169">
+        <v>29.39</v>
+      </c>
+      <c r="J169">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>157</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" t="s">
+        <v>156</v>
+      </c>
+      <c r="D170">
+        <v>10</v>
+      </c>
+      <c r="E170">
+        <v>43</v>
+      </c>
+      <c r="F170">
+        <v>1.83</v>
+      </c>
+      <c r="G170">
+        <v>4.2</v>
+      </c>
+      <c r="H170" t="s">
+        <v>7</v>
+      </c>
+      <c r="I170">
+        <v>28.41</v>
+      </c>
+      <c r="J170">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>158</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
         <v>32</v>
       </c>
-      <c r="D168">
-        <v>5.27</v>
-      </c>
-      <c r="E168">
+      <c r="D171">
+        <v>7.12</v>
+      </c>
+      <c r="E171">
         <v>13.3</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F171" t="s">
         <v>50</v>
       </c>
-      <c r="G168">
+      <c r="G171">
         <v>3.4</v>
       </c>
-      <c r="H168" t="s">
+      <c r="H171" t="s">
         <v>11</v>
       </c>
-      <c r="I168">
+      <c r="I171">
         <v>28.18</v>
       </c>
-      <c r="J168">
+      <c r="J171">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>158</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>32</v>
+      </c>
+      <c r="D172">
+        <v>4.66</v>
+      </c>
+      <c r="E172">
+        <v>13.3</v>
+      </c>
+      <c r="F172" t="s">
+        <v>50</v>
+      </c>
+      <c r="G172">
+        <v>3.4</v>
+      </c>
+      <c r="H172" t="s">
+        <v>11</v>
+      </c>
+      <c r="I172">
+        <v>28.18</v>
+      </c>
+      <c r="J172">
         <v>60</v>
       </c>
     </row>
